--- a/OCRProject/Output/Comparision/CosineSimilarity.xlsx
+++ b/OCRProject/Output/Comparision/CosineSimilarity.xlsx
@@ -165,49 +165,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="C2" s="0">
-        <v>0.9256170988082886</v>
+        <v>0.9171639680862427</v>
       </c>
       <c r="D2" s="0">
-        <v>0.9357141852378845</v>
+        <v>0.9346535205841064</v>
       </c>
       <c r="E2" s="0">
-        <v>0.9509316086769104</v>
+        <v>0.9530906677246094</v>
       </c>
       <c r="F2" s="0">
-        <v>0.9327097535133362</v>
+        <v>0.9352941513061523</v>
       </c>
       <c r="G2" s="0">
-        <v>0.9211363792419434</v>
+        <v>0.9212917685508728</v>
       </c>
       <c r="H2" s="0">
-        <v>0.9049039483070374</v>
+        <v>0.9147340059280396</v>
       </c>
       <c r="I2" s="0">
-        <v>0.9180084466934204</v>
+        <v>0.9233823418617249</v>
       </c>
       <c r="J2" s="0">
-        <v>0.9079117774963379</v>
+        <v>0.9135939478874207</v>
       </c>
       <c r="K2" s="0">
-        <v>0.9092013835906982</v>
+        <v>0.911325216293335</v>
       </c>
       <c r="L2" s="0">
-        <v>0.9318261742591858</v>
+        <v>0.9324420690536499</v>
       </c>
       <c r="M2" s="0">
-        <v>0.9232932925224304</v>
+        <v>0.9356733560562134</v>
       </c>
       <c r="N2" s="0">
-        <v>0.9201399683952332</v>
+        <v>0.9317280650138855</v>
       </c>
       <c r="O2" s="0">
-        <v>0.9414764642715454</v>
+        <v>0.9475152492523193</v>
       </c>
       <c r="P2" s="0">
-        <v>0.8817219138145447</v>
+        <v>0.8930932283401489</v>
       </c>
     </row>
     <row r="3">
@@ -215,49 +215,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.9256170988082886</v>
+        <v>0.9171639680862427</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="D3" s="0">
-        <v>0.9594947099685669</v>
+        <v>0.9544520378112793</v>
       </c>
       <c r="E3" s="0">
-        <v>0.9241690635681152</v>
+        <v>0.9156346321105957</v>
       </c>
       <c r="F3" s="0">
-        <v>0.9018773436546326</v>
+        <v>0.8981525301933289</v>
       </c>
       <c r="G3" s="0">
-        <v>0.893177330493927</v>
+        <v>0.8838882446289062</v>
       </c>
       <c r="H3" s="0">
-        <v>0.8850354552268982</v>
+        <v>0.8726914525032043</v>
       </c>
       <c r="I3" s="0">
-        <v>0.8899036645889282</v>
+        <v>0.876292884349823</v>
       </c>
       <c r="J3" s="0">
-        <v>0.8772271275520325</v>
+        <v>0.8616222143173218</v>
       </c>
       <c r="K3" s="0">
-        <v>0.8828825354576111</v>
+        <v>0.8621996641159058</v>
       </c>
       <c r="L3" s="0">
-        <v>0.898924708366394</v>
+        <v>0.8848479390144348</v>
       </c>
       <c r="M3" s="0">
-        <v>0.897709310054779</v>
+        <v>0.8833574056625366</v>
       </c>
       <c r="N3" s="0">
-        <v>0.8840367794036865</v>
+        <v>0.876994788646698</v>
       </c>
       <c r="O3" s="0">
-        <v>0.9222460985183716</v>
+        <v>0.9148194193840027</v>
       </c>
       <c r="P3" s="0">
-        <v>0.8524534106254578</v>
+        <v>0.8524887561798096</v>
       </c>
     </row>
     <row r="4">
@@ -265,49 +265,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.9357141852378845</v>
+        <v>0.9346535205841064</v>
       </c>
       <c r="C4" s="0">
-        <v>0.9594947099685669</v>
+        <v>0.9544520378112793</v>
       </c>
       <c r="D4" s="0">
-        <v>1.0000001192092896</v>
+        <v>1</v>
       </c>
       <c r="E4" s="0">
-        <v>0.9430855512619019</v>
+        <v>0.9382079243659973</v>
       </c>
       <c r="F4" s="0">
-        <v>0.9311843514442444</v>
+        <v>0.9412528872489929</v>
       </c>
       <c r="G4" s="0">
-        <v>0.9246788024902344</v>
+        <v>0.922397792339325</v>
       </c>
       <c r="H4" s="0">
-        <v>0.9107555747032166</v>
+        <v>0.913628101348877</v>
       </c>
       <c r="I4" s="0">
-        <v>0.9140034317970276</v>
+        <v>0.9109379053115845</v>
       </c>
       <c r="J4" s="0">
-        <v>0.904209315776825</v>
+        <v>0.9003334641456604</v>
       </c>
       <c r="K4" s="0">
-        <v>0.9103715419769287</v>
+        <v>0.9025514721870422</v>
       </c>
       <c r="L4" s="0">
-        <v>0.9184842109680176</v>
+        <v>0.9157364368438721</v>
       </c>
       <c r="M4" s="0">
-        <v>0.9177511930465698</v>
+        <v>0.9140242338180542</v>
       </c>
       <c r="N4" s="0">
-        <v>0.9107533693313599</v>
+        <v>0.9109246134757996</v>
       </c>
       <c r="O4" s="0">
-        <v>0.93817538022995</v>
+        <v>0.9386396408081055</v>
       </c>
       <c r="P4" s="0">
-        <v>0.8753235340118408</v>
+        <v>0.9002066850662231</v>
       </c>
     </row>
     <row r="5">
@@ -315,49 +315,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.9509316086769104</v>
+        <v>0.9530906677246094</v>
       </c>
       <c r="C5" s="0">
-        <v>0.9241690635681152</v>
+        <v>0.9156346321105957</v>
       </c>
       <c r="D5" s="0">
-        <v>0.9430855512619019</v>
+        <v>0.9382079243659973</v>
       </c>
       <c r="E5" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="F5" s="0">
-        <v>0.9210425615310669</v>
+        <v>0.9368013143539429</v>
       </c>
       <c r="G5" s="0">
-        <v>0.9001242518424988</v>
+        <v>0.9101577997207642</v>
       </c>
       <c r="H5" s="0">
-        <v>0.8857123255729675</v>
+        <v>0.9042800664901733</v>
       </c>
       <c r="I5" s="0">
-        <v>0.8937146067619324</v>
+        <v>0.9087614417076111</v>
       </c>
       <c r="J5" s="0">
-        <v>0.8813398480415344</v>
+        <v>0.8956661820411682</v>
       </c>
       <c r="K5" s="0">
-        <v>0.880795419216156</v>
+        <v>0.8930191397666931</v>
       </c>
       <c r="L5" s="0">
-        <v>0.9036356210708618</v>
+        <v>0.91444331407547</v>
       </c>
       <c r="M5" s="0">
-        <v>0.8995876908302307</v>
+        <v>0.9196116328239441</v>
       </c>
       <c r="N5" s="0">
-        <v>0.900236189365387</v>
+        <v>0.9222708940505981</v>
       </c>
       <c r="O5" s="0">
-        <v>0.9091871380805969</v>
+        <v>0.9237367510795593</v>
       </c>
       <c r="P5" s="0">
-        <v>0.8650069832801819</v>
+        <v>0.8854870200157166</v>
       </c>
     </row>
     <row r="6">
@@ -365,49 +365,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.9327097535133362</v>
+        <v>0.9352941513061523</v>
       </c>
       <c r="C6" s="0">
-        <v>0.9018773436546326</v>
+        <v>0.8981525301933289</v>
       </c>
       <c r="D6" s="0">
-        <v>0.9311843514442444</v>
+        <v>0.9412528872489929</v>
       </c>
       <c r="E6" s="0">
-        <v>0.9210425615310669</v>
+        <v>0.9368013143539429</v>
       </c>
       <c r="F6" s="0">
         <v>1</v>
       </c>
       <c r="G6" s="0">
-        <v>0.9576440453529358</v>
+        <v>0.9608485102653503</v>
       </c>
       <c r="H6" s="0">
-        <v>0.9445624351501465</v>
+        <v>0.9591712355613708</v>
       </c>
       <c r="I6" s="0">
-        <v>0.9501506686210632</v>
+        <v>0.9564765691757202</v>
       </c>
       <c r="J6" s="0">
-        <v>0.9460419416427612</v>
+        <v>0.9505598545074463</v>
       </c>
       <c r="K6" s="0">
-        <v>0.9369499683380127</v>
+        <v>0.9461321234703064</v>
       </c>
       <c r="L6" s="0">
-        <v>0.9488138556480408</v>
+        <v>0.9574097990989685</v>
       </c>
       <c r="M6" s="0">
-        <v>0.9433546662330627</v>
+        <v>0.9487810730934143</v>
       </c>
       <c r="N6" s="0">
-        <v>0.9483858346939087</v>
+        <v>0.9542967677116394</v>
       </c>
       <c r="O6" s="0">
-        <v>0.94460529088974</v>
+        <v>0.9527520537376404</v>
       </c>
       <c r="P6" s="0">
-        <v>0.9317516684532166</v>
+        <v>0.9360220432281494</v>
       </c>
     </row>
     <row r="7">
@@ -415,49 +415,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.9211363792419434</v>
+        <v>0.9212917685508728</v>
       </c>
       <c r="C7" s="0">
-        <v>0.893177330493927</v>
+        <v>0.8838882446289062</v>
       </c>
       <c r="D7" s="0">
-        <v>0.9246788024902344</v>
+        <v>0.922397792339325</v>
       </c>
       <c r="E7" s="0">
-        <v>0.9001242518424988</v>
+        <v>0.9101577997207642</v>
       </c>
       <c r="F7" s="0">
-        <v>0.9576440453529358</v>
+        <v>0.9608485102653503</v>
       </c>
       <c r="G7" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="H7" s="0">
-        <v>0.9804522395133972</v>
+        <v>0.9826129078865051</v>
       </c>
       <c r="I7" s="0">
-        <v>0.9765084385871887</v>
+        <v>0.9765161275863647</v>
       </c>
       <c r="J7" s="0">
-        <v>0.9822197556495667</v>
+        <v>0.9820278882980347</v>
       </c>
       <c r="K7" s="0">
-        <v>0.9740687608718872</v>
+        <v>0.9720178842544556</v>
       </c>
       <c r="L7" s="0">
-        <v>0.974353551864624</v>
+        <v>0.9702774882316589</v>
       </c>
       <c r="M7" s="0">
-        <v>0.9726462364196777</v>
+        <v>0.9651340842247009</v>
       </c>
       <c r="N7" s="0">
-        <v>0.9754493832588196</v>
+        <v>0.9682123064994812</v>
       </c>
       <c r="O7" s="0">
-        <v>0.9596290588378906</v>
+        <v>0.9590562582015991</v>
       </c>
       <c r="P7" s="0">
-        <v>0.944634735584259</v>
+        <v>0.9518705606460571</v>
       </c>
     </row>
     <row r="8">
@@ -465,49 +465,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.9049039483070374</v>
+        <v>0.9147340059280396</v>
       </c>
       <c r="C8" s="0">
-        <v>0.8850354552268982</v>
+        <v>0.8726914525032043</v>
       </c>
       <c r="D8" s="0">
-        <v>0.9107555747032166</v>
+        <v>0.913628101348877</v>
       </c>
       <c r="E8" s="0">
-        <v>0.8857123255729675</v>
+        <v>0.9042800664901733</v>
       </c>
       <c r="F8" s="0">
-        <v>0.9445624351501465</v>
+        <v>0.9591712355613708</v>
       </c>
       <c r="G8" s="0">
-        <v>0.9804522395133972</v>
+        <v>0.9826129078865051</v>
       </c>
       <c r="H8" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="I8" s="0">
-        <v>0.9760296940803528</v>
+        <v>0.9730774164199829</v>
       </c>
       <c r="J8" s="0">
-        <v>0.9806009531021118</v>
+        <v>0.9823905825614929</v>
       </c>
       <c r="K8" s="0">
-        <v>0.9652830958366394</v>
+        <v>0.9700808525085449</v>
       </c>
       <c r="L8" s="0">
-        <v>0.9684832096099854</v>
+        <v>0.9687384963035583</v>
       </c>
       <c r="M8" s="0">
-        <v>0.9708789587020874</v>
+        <v>0.9630168080329895</v>
       </c>
       <c r="N8" s="0">
-        <v>0.9724311232566833</v>
+        <v>0.9672380685806274</v>
       </c>
       <c r="O8" s="0">
-        <v>0.9427897334098816</v>
+        <v>0.9524215459823608</v>
       </c>
       <c r="P8" s="0">
-        <v>0.9360511302947998</v>
+        <v>0.9471285939216614</v>
       </c>
     </row>
     <row r="9">
@@ -515,49 +515,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.9180084466934204</v>
+        <v>0.9233823418617249</v>
       </c>
       <c r="C9" s="0">
-        <v>0.8899036645889282</v>
+        <v>0.876292884349823</v>
       </c>
       <c r="D9" s="0">
-        <v>0.9140034317970276</v>
+        <v>0.9109379053115845</v>
       </c>
       <c r="E9" s="0">
-        <v>0.8937146067619324</v>
+        <v>0.9087614417076111</v>
       </c>
       <c r="F9" s="0">
-        <v>0.9501506686210632</v>
+        <v>0.9564765691757202</v>
       </c>
       <c r="G9" s="0">
-        <v>0.9765084385871887</v>
+        <v>0.9765161275863647</v>
       </c>
       <c r="H9" s="0">
-        <v>0.9760296940803528</v>
+        <v>0.9730774164199829</v>
       </c>
       <c r="I9" s="0">
         <v>1.0000001192092896</v>
       </c>
       <c r="J9" s="0">
-        <v>0.982770562171936</v>
+        <v>0.9819363355636597</v>
       </c>
       <c r="K9" s="0">
-        <v>0.9716765880584717</v>
+        <v>0.9707476496696472</v>
       </c>
       <c r="L9" s="0">
-        <v>0.9716586470603943</v>
+        <v>0.9649441242218018</v>
       </c>
       <c r="M9" s="0">
-        <v>0.9712207317352295</v>
+        <v>0.9662008285522461</v>
       </c>
       <c r="N9" s="0">
-        <v>0.9663276672363281</v>
+        <v>0.9659247398376465</v>
       </c>
       <c r="O9" s="0">
-        <v>0.9524972438812256</v>
+        <v>0.9569532871246338</v>
       </c>
       <c r="P9" s="0">
-        <v>0.924644410610199</v>
+        <v>0.9368687272071838</v>
       </c>
     </row>
     <row r="10">
@@ -565,49 +565,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0.9079117774963379</v>
+        <v>0.9135939478874207</v>
       </c>
       <c r="C10" s="0">
-        <v>0.8772271275520325</v>
+        <v>0.8616222143173218</v>
       </c>
       <c r="D10" s="0">
-        <v>0.904209315776825</v>
+        <v>0.9003334641456604</v>
       </c>
       <c r="E10" s="0">
-        <v>0.8813398480415344</v>
+        <v>0.8956661820411682</v>
       </c>
       <c r="F10" s="0">
-        <v>0.9460419416427612</v>
+        <v>0.9505598545074463</v>
       </c>
       <c r="G10" s="0">
-        <v>0.9822197556495667</v>
+        <v>0.9820278882980347</v>
       </c>
       <c r="H10" s="0">
-        <v>0.9806009531021118</v>
+        <v>0.9823905825614929</v>
       </c>
       <c r="I10" s="0">
-        <v>0.982770562171936</v>
+        <v>0.9819363355636597</v>
       </c>
       <c r="J10" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="K10" s="0">
-        <v>0.9777085185050964</v>
+        <v>0.9752451777458191</v>
       </c>
       <c r="L10" s="0">
-        <v>0.9762486219406128</v>
+        <v>0.9709405303001404</v>
       </c>
       <c r="M10" s="0">
-        <v>0.972843587398529</v>
+        <v>0.964361310005188</v>
       </c>
       <c r="N10" s="0">
-        <v>0.9736344814300537</v>
+        <v>0.9670005440711975</v>
       </c>
       <c r="O10" s="0">
-        <v>0.9514173865318298</v>
+        <v>0.9559208750724792</v>
       </c>
       <c r="P10" s="0">
-        <v>0.9340088963508606</v>
+        <v>0.942115843296051</v>
       </c>
     </row>
     <row r="11">
@@ -615,49 +615,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0.9092013835906982</v>
+        <v>0.911325216293335</v>
       </c>
       <c r="C11" s="0">
-        <v>0.8828825354576111</v>
+        <v>0.8621996641159058</v>
       </c>
       <c r="D11" s="0">
-        <v>0.9103715419769287</v>
+        <v>0.9025514721870422</v>
       </c>
       <c r="E11" s="0">
-        <v>0.880795419216156</v>
+        <v>0.8930191397666931</v>
       </c>
       <c r="F11" s="0">
-        <v>0.9369499683380127</v>
+        <v>0.9461321234703064</v>
       </c>
       <c r="G11" s="0">
-        <v>0.9740687608718872</v>
+        <v>0.9720178842544556</v>
       </c>
       <c r="H11" s="0">
-        <v>0.9652830958366394</v>
+        <v>0.9700808525085449</v>
       </c>
       <c r="I11" s="0">
-        <v>0.9716765880584717</v>
+        <v>0.9707476496696472</v>
       </c>
       <c r="J11" s="0">
-        <v>0.9777085185050964</v>
+        <v>0.9752451777458191</v>
       </c>
       <c r="K11" s="0">
-        <v>1.0000001192092896</v>
+        <v>1</v>
       </c>
       <c r="L11" s="0">
-        <v>0.9661189317703247</v>
+        <v>0.9600358009338379</v>
       </c>
       <c r="M11" s="0">
-        <v>0.9611099362373352</v>
+        <v>0.9554422497749329</v>
       </c>
       <c r="N11" s="0">
-        <v>0.9566656351089478</v>
+        <v>0.9547865390777588</v>
       </c>
       <c r="O11" s="0">
-        <v>0.949671745300293</v>
+        <v>0.9536893963813782</v>
       </c>
       <c r="P11" s="0">
-        <v>0.9176278114318848</v>
+        <v>0.9331379532814026</v>
       </c>
     </row>
     <row r="12">
@@ -665,49 +665,49 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0.9318261742591858</v>
+        <v>0.9324420690536499</v>
       </c>
       <c r="C12" s="0">
-        <v>0.898924708366394</v>
+        <v>0.8848479390144348</v>
       </c>
       <c r="D12" s="0">
-        <v>0.9184842109680176</v>
+        <v>0.9157364368438721</v>
       </c>
       <c r="E12" s="0">
-        <v>0.9036356210708618</v>
+        <v>0.91444331407547</v>
       </c>
       <c r="F12" s="0">
-        <v>0.9488138556480408</v>
+        <v>0.9574097990989685</v>
       </c>
       <c r="G12" s="0">
-        <v>0.974353551864624</v>
+        <v>0.9702774882316589</v>
       </c>
       <c r="H12" s="0">
-        <v>0.9684832096099854</v>
+        <v>0.9687384963035583</v>
       </c>
       <c r="I12" s="0">
-        <v>0.9716586470603943</v>
+        <v>0.9649441242218018</v>
       </c>
       <c r="J12" s="0">
-        <v>0.9762486219406128</v>
+        <v>0.9709405303001404</v>
       </c>
       <c r="K12" s="0">
-        <v>0.9661189317703247</v>
+        <v>0.9600358009338379</v>
       </c>
       <c r="L12" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="M12" s="0">
-        <v>0.968662679195404</v>
+        <v>0.9580090045928955</v>
       </c>
       <c r="N12" s="0">
-        <v>0.9777703285217285</v>
+        <v>0.9738756418228149</v>
       </c>
       <c r="O12" s="0">
-        <v>0.9555644392967224</v>
+        <v>0.9565163254737854</v>
       </c>
       <c r="P12" s="0">
-        <v>0.9260687232017517</v>
+        <v>0.9335082769393921</v>
       </c>
     </row>
     <row r="13">
@@ -715,49 +715,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0.9232932925224304</v>
+        <v>0.9356733560562134</v>
       </c>
       <c r="C13" s="0">
-        <v>0.897709310054779</v>
+        <v>0.8833574056625366</v>
       </c>
       <c r="D13" s="0">
-        <v>0.9177511930465698</v>
+        <v>0.9140242338180542</v>
       </c>
       <c r="E13" s="0">
-        <v>0.8995876908302307</v>
+        <v>0.9196116328239441</v>
       </c>
       <c r="F13" s="0">
-        <v>0.9433546662330627</v>
+        <v>0.9487810730934143</v>
       </c>
       <c r="G13" s="0">
-        <v>0.9726462364196777</v>
+        <v>0.9651340842247009</v>
       </c>
       <c r="H13" s="0">
-        <v>0.9708789587020874</v>
+        <v>0.9630168080329895</v>
       </c>
       <c r="I13" s="0">
-        <v>0.9712207317352295</v>
+        <v>0.9662008285522461</v>
       </c>
       <c r="J13" s="0">
-        <v>0.972843587398529</v>
+        <v>0.964361310005188</v>
       </c>
       <c r="K13" s="0">
-        <v>0.9611099362373352</v>
+        <v>0.9554422497749329</v>
       </c>
       <c r="L13" s="0">
-        <v>0.968662679195404</v>
+        <v>0.9580090045928955</v>
       </c>
       <c r="M13" s="0">
-        <v>1</v>
+        <v>1.0000001192092896</v>
       </c>
       <c r="N13" s="0">
-        <v>0.9697480797767639</v>
+        <v>0.9679507613182068</v>
       </c>
       <c r="O13" s="0">
-        <v>0.9476518034934998</v>
+        <v>0.9546512365341187</v>
       </c>
       <c r="P13" s="0">
-        <v>0.9217697381973267</v>
+        <v>0.9325873851776123</v>
       </c>
     </row>
     <row r="14">
@@ -765,49 +765,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>0.9201399683952332</v>
+        <v>0.9317280650138855</v>
       </c>
       <c r="C14" s="0">
-        <v>0.8840367794036865</v>
+        <v>0.876994788646698</v>
       </c>
       <c r="D14" s="0">
-        <v>0.9107533693313599</v>
+        <v>0.9109246134757996</v>
       </c>
       <c r="E14" s="0">
-        <v>0.900236189365387</v>
+        <v>0.9222708940505981</v>
       </c>
       <c r="F14" s="0">
-        <v>0.9483858346939087</v>
+        <v>0.9542967677116394</v>
       </c>
       <c r="G14" s="0">
-        <v>0.9754493832588196</v>
+        <v>0.9682123064994812</v>
       </c>
       <c r="H14" s="0">
-        <v>0.9724311232566833</v>
+        <v>0.9672380685806274</v>
       </c>
       <c r="I14" s="0">
-        <v>0.9663276672363281</v>
+        <v>0.9659247398376465</v>
       </c>
       <c r="J14" s="0">
-        <v>0.9736344814300537</v>
+        <v>0.9670005440711975</v>
       </c>
       <c r="K14" s="0">
-        <v>0.9566656351089478</v>
+        <v>0.9547865390777588</v>
       </c>
       <c r="L14" s="0">
-        <v>0.9777703285217285</v>
+        <v>0.9738756418228149</v>
       </c>
       <c r="M14" s="0">
-        <v>0.9697480797767639</v>
+        <v>0.9679507613182068</v>
       </c>
       <c r="N14" s="0">
-        <v>1.0000001192092896</v>
+        <v>1</v>
       </c>
       <c r="O14" s="0">
-        <v>0.9439353346824646</v>
+        <v>0.9477950930595398</v>
       </c>
       <c r="P14" s="0">
-        <v>0.9287190437316895</v>
+        <v>0.9318179488182068</v>
       </c>
     </row>
     <row r="15">
@@ -815,49 +815,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>0.9414764642715454</v>
+        <v>0.9475152492523193</v>
       </c>
       <c r="C15" s="0">
-        <v>0.9222460985183716</v>
+        <v>0.9148194193840027</v>
       </c>
       <c r="D15" s="0">
-        <v>0.93817538022995</v>
+        <v>0.9386396408081055</v>
       </c>
       <c r="E15" s="0">
-        <v>0.9091871380805969</v>
+        <v>0.9237367510795593</v>
       </c>
       <c r="F15" s="0">
-        <v>0.94460529088974</v>
+        <v>0.9527520537376404</v>
       </c>
       <c r="G15" s="0">
-        <v>0.9596290588378906</v>
+        <v>0.9590562582015991</v>
       </c>
       <c r="H15" s="0">
-        <v>0.9427897334098816</v>
+        <v>0.9524215459823608</v>
       </c>
       <c r="I15" s="0">
-        <v>0.9524972438812256</v>
+        <v>0.9569532871246338</v>
       </c>
       <c r="J15" s="0">
-        <v>0.9514173865318298</v>
+        <v>0.9559208750724792</v>
       </c>
       <c r="K15" s="0">
-        <v>0.949671745300293</v>
+        <v>0.9536893963813782</v>
       </c>
       <c r="L15" s="0">
-        <v>0.9555644392967224</v>
+        <v>0.9565163254737854</v>
       </c>
       <c r="M15" s="0">
-        <v>0.9476518034934998</v>
+        <v>0.9546512365341187</v>
       </c>
       <c r="N15" s="0">
-        <v>0.9439353346824646</v>
+        <v>0.9477950930595398</v>
       </c>
       <c r="O15" s="0">
         <v>1</v>
       </c>
       <c r="P15" s="0">
-        <v>0.9169334769248962</v>
+        <v>0.9254358410835266</v>
       </c>
     </row>
     <row r="16">
@@ -865,46 +865,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>0.8817219138145447</v>
+        <v>0.8930932283401489</v>
       </c>
       <c r="C16" s="0">
-        <v>0.8524534106254578</v>
+        <v>0.8524887561798096</v>
       </c>
       <c r="D16" s="0">
-        <v>0.8753235340118408</v>
+        <v>0.9002066850662231</v>
       </c>
       <c r="E16" s="0">
-        <v>0.8650069832801819</v>
+        <v>0.8854870200157166</v>
       </c>
       <c r="F16" s="0">
-        <v>0.9317516684532166</v>
+        <v>0.9360220432281494</v>
       </c>
       <c r="G16" s="0">
-        <v>0.944634735584259</v>
+        <v>0.9518705606460571</v>
       </c>
       <c r="H16" s="0">
-        <v>0.9360511302947998</v>
+        <v>0.9471285939216614</v>
       </c>
       <c r="I16" s="0">
-        <v>0.924644410610199</v>
+        <v>0.9368687272071838</v>
       </c>
       <c r="J16" s="0">
-        <v>0.9340088963508606</v>
+        <v>0.942115843296051</v>
       </c>
       <c r="K16" s="0">
-        <v>0.9176278114318848</v>
+        <v>0.9331379532814026</v>
       </c>
       <c r="L16" s="0">
-        <v>0.9260687232017517</v>
+        <v>0.9335082769393921</v>
       </c>
       <c r="M16" s="0">
-        <v>0.9217697381973267</v>
+        <v>0.9325873851776123</v>
       </c>
       <c r="N16" s="0">
-        <v>0.9287190437316895</v>
+        <v>0.9318179488182068</v>
       </c>
       <c r="O16" s="0">
-        <v>0.9169334769248962</v>
+        <v>0.9254358410835266</v>
       </c>
       <c r="P16" s="0">
         <v>1.0000001192092896</v>
